--- a/server/data/coa/modifiedCoa.xlsx
+++ b/server/data/coa/modifiedCoa.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E269"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,7 +431,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D2" t="str">
-        <v>Cash and cash equivalents/Bankanjay</v>
+        <v>Cash and cash equivalents/Bank</v>
       </c>
       <c r="E2" t="str">
         <v>Funds received, but not yet deposited to a bank account</v>
@@ -445,7 +445,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D3" t="str">
-        <v>Cash and cash equivalents/Bankanjay</v>
+        <v>Cash and cash equivalents/Bank</v>
       </c>
     </row>
     <row r="4">
@@ -456,7 +456,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D4" t="str">
-        <v>Cash and cash equivalents/Bankanjay</v>
+        <v>Cash and cash equivalents/Bank</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>Cash and cash equivalents</v>
       </c>
       <c r="D5" t="str">
-        <v>Cash and cash equivalents/Bankanjay</v>
+        <v>Cash and cash equivalents/Bank</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         <v>Accounts receivable (A/R)</v>
       </c>
       <c r="D6" t="str">
-        <v>Accounts receivable (A/R)anjay</v>
+        <v>Accounts receivable (A/R)</v>
       </c>
       <c r="E6" t="str">
         <v>Unpaid or unapplied customer invoices and credits</v>
@@ -498,7 +498,7 @@
         <v>Current assets</v>
       </c>
       <c r="D7" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
       <c r="E7" t="str">
         <v>Costs of stock purchased for resale</v>
@@ -515,7 +515,7 @@
         <v>Current assets</v>
       </c>
       <c r="D8" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
       <c r="E8" t="str">
         <v>Insurance premiums paid in advance of policy effective dates</v>
@@ -529,7 +529,7 @@
         <v>Current assets</v>
       </c>
       <c r="D9" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="10">
@@ -540,7 +540,7 @@
         <v>Current assets</v>
       </c>
       <c r="D10" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="11">
@@ -551,7 +551,7 @@
         <v>Current assets</v>
       </c>
       <c r="D11" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +562,7 @@
         <v>Current assets</v>
       </c>
       <c r="D12" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="13">
@@ -573,7 +573,7 @@
         <v>Current assets</v>
       </c>
       <c r="D13" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="14">
@@ -584,7 +584,7 @@
         <v>Current assets</v>
       </c>
       <c r="D14" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="15">
@@ -595,7 +595,7 @@
         <v>Current assets</v>
       </c>
       <c r="D15" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="16">
@@ -606,7 +606,7 @@
         <v>Current assets</v>
       </c>
       <c r="D16" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="17">
@@ -617,7 +617,7 @@
         <v>Current assets</v>
       </c>
       <c r="D17" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="18">
@@ -628,7 +628,7 @@
         <v>Current assets</v>
       </c>
       <c r="D18" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="19">
@@ -639,7 +639,7 @@
         <v>Current assets</v>
       </c>
       <c r="D19" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="20">
@@ -650,7 +650,7 @@
         <v>Current assets</v>
       </c>
       <c r="D20" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="21">
@@ -661,7 +661,7 @@
         <v>Current assets</v>
       </c>
       <c r="D21" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="22">
@@ -672,7 +672,7 @@
         <v>Current assets</v>
       </c>
       <c r="D22" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="23">
@@ -683,7 +683,7 @@
         <v>Current assets</v>
       </c>
       <c r="D23" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="24">
@@ -694,7 +694,7 @@
         <v>Current assets</v>
       </c>
       <c r="D24" t="str">
-        <v>Other current assetsanjay</v>
+        <v>Other current assets</v>
       </c>
     </row>
     <row r="25">
@@ -708,7 +708,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D25" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E25" t="str">
         <v>Furniture and equipment with useful life exceeding one year</v>
@@ -725,7 +725,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D26" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E26" t="str">
         <v>Cost of furniture and fixtures</v>
@@ -742,7 +742,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D27" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E27" t="str">
         <v>Depreciation of furniture and fixtures</v>
@@ -759,7 +759,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D28" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E28" t="str">
         <v>Cost of computers</v>
@@ -776,7 +776,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D29" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E29" t="str">
         <v>Cost of computers</v>
@@ -793,7 +793,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D30" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E30" t="str">
         <v>Depreciation of computers</v>
@@ -810,7 +810,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D31" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E31" t="str">
         <v>Office equipment including printers, photocopiers</v>
@@ -827,7 +827,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D32" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E32" t="str">
         <v>Office equipment including printers, photocopiers</v>
@@ -844,7 +844,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D33" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E33" t="str">
         <v>Depreciation on company owned office equipment including photocopiers etc</v>
@@ -861,7 +861,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D34" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E34" t="str">
         <v>Business cars and trucks, registered in the name of the business</v>
@@ -878,7 +878,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D35" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E35" t="str">
         <v>Business cars and trucks, registered in the name of the business</v>
@@ -895,7 +895,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D36" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E36" t="str">
         <v>Depreciation on company cars and trucks, registered in the name of the business</v>
@@ -912,7 +912,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D37" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E37" t="str">
         <v>Custom and/or industry specific software</v>
@@ -929,7 +929,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D38" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E38" t="str">
         <v>Land owned by the company</v>
@@ -946,7 +946,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D39" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E39" t="str">
         <v>Improvements to leased building space</v>
@@ -963,7 +963,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D40" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E40" t="str">
         <v>Business automobiles and trucks, registered in the name of the business</v>
@@ -980,7 +980,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D41" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
       <c r="E41" t="str">
         <v>Accumulated depreciation on equipment, buildings and improvements</v>
@@ -994,7 +994,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D42" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
     </row>
     <row r="43">
@@ -1005,7 +1005,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D43" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1016,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D44" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
     </row>
     <row r="45">
@@ -1027,7 +1027,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D45" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
     </row>
     <row r="46">
@@ -1038,7 +1038,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D46" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
     </row>
     <row r="47">
@@ -1049,7 +1049,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D47" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
     </row>
     <row r="48">
@@ -1060,7 +1060,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D48" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
     </row>
     <row r="49">
@@ -1071,7 +1071,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D49" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
     </row>
     <row r="50">
@@ -1082,7 +1082,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D50" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
     </row>
     <row r="51">
@@ -1093,7 +1093,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D51" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
     </row>
     <row r="52">
@@ -1104,7 +1104,7 @@
         <v>Fixed assets</v>
       </c>
       <c r="D52" t="str">
-        <v>Other fixed assetsanjay</v>
+        <v>Other fixed assets</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1118,7 @@
         <v>Non-current assets</v>
       </c>
       <c r="D53" t="str">
-        <v>Other non-current assetsanjay</v>
+        <v>Other non-current assets</v>
       </c>
       <c r="E53" t="str">
         <v>Deposits and other returnable funds held by other entities (Rent, Utilities, etc.)</v>
@@ -1132,7 +1132,7 @@
         <v>Non-current assets</v>
       </c>
       <c r="D54" t="str">
-        <v>Other non-current assetsanjay</v>
+        <v>Other non-current assets</v>
       </c>
     </row>
     <row r="55">
@@ -1163,7 +1163,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D56" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
       <c r="E56" t="str">
         <v>Employee related payroll liabilities</v>
@@ -1180,7 +1180,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D57" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
       <c r="E57" t="str">
         <v>Security deposits from tenants</v>
@@ -1197,7 +1197,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D58" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="59">
@@ -1211,7 +1211,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D59" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
       <c r="E59" t="str">
         <v>Estimates for jobs or projects. Customer proposals for work to be done, or items to be sold upon cus</v>
@@ -1228,7 +1228,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D60" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
       <c r="E60" t="str">
         <v>Orders from customers to be filled, work to be performed, or items to be shipped</v>
@@ -1245,7 +1245,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D61" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
       <c r="E61" t="str">
         <v>BACS-paid employee payroll payment details</v>
@@ -1262,7 +1262,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D62" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
       <c r="E62" t="str">
         <v>Giro-paid employee payroll payment details</v>
@@ -1276,7 +1276,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D63" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="64">
@@ -1287,7 +1287,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D64" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="65">
@@ -1298,7 +1298,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D65" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="66">
@@ -1309,7 +1309,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D66" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="67">
@@ -1320,7 +1320,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D67" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="68">
@@ -1331,7 +1331,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D68" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="69">
@@ -1342,7 +1342,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D69" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="70">
@@ -1353,7 +1353,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D70" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="71">
@@ -1364,7 +1364,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D71" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="72">
@@ -1375,7 +1375,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D72" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="73">
@@ -1386,7 +1386,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D73" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="74">
@@ -1397,7 +1397,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D74" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="75">
@@ -1408,7 +1408,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D75" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="76">
@@ -1419,7 +1419,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D76" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="77">
@@ -1430,7 +1430,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D77" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="78">
@@ -1441,7 +1441,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D78" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="79">
@@ -1452,7 +1452,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D79" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="80">
@@ -1463,7 +1463,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D80" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="81">
@@ -1474,7 +1474,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D81" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="82">
@@ -1485,7 +1485,7 @@
         <v>Current liabilities</v>
       </c>
       <c r="D82" t="str">
-        <v>Other current liabilitiesanjay</v>
+        <v>Other current liabilities</v>
       </c>
     </row>
     <row r="83">
@@ -1510,7 +1510,7 @@
         <v>Owner's equity</v>
       </c>
       <c r="D84" t="str">
-        <v>Owner's Equityanjay</v>
+        <v>Owner's Equity</v>
       </c>
       <c r="E84" t="str">
         <v>Opening balances during setup post to this account. The balance of this account should be zero after</v>
@@ -1527,2201 +1527,2190 @@
         <v>Owner's equity</v>
       </c>
       <c r="D85" t="str">
-        <v>Owner's Equityanjay</v>
+        <v>Owner's Equity</v>
       </c>
       <c r="E85" t="str">
         <v>Monies taken out of the business by the member</v>
       </c>
     </row>
     <row r="86">
+      <c r="A86">
+        <v>4200</v>
+      </c>
       <c r="B86" t="str">
-        <v>Retained Earnings</v>
+        <v>Income 11 Mackay:Rental Income</v>
       </c>
       <c r="C86" t="str">
-        <v>Owner's equity</v>
+        <v>Income</v>
       </c>
       <c r="D86" t="str">
-        <v>Owner's Equityanjay</v>
+        <v>Revenue - General</v>
+      </c>
+      <c r="E86" t="str">
+        <v>Letting Income</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>4200</v>
+        <v>4240</v>
       </c>
       <c r="B87" t="str">
-        <v>Income 11 Mackay:Rental Income</v>
+        <v>Commission Income</v>
       </c>
       <c r="C87" t="str">
         <v>Income</v>
       </c>
       <c r="D87" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
       <c r="E87" t="str">
-        <v>Letting Income</v>
+        <v>Commissions income on sales or referrals</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>4240</v>
+        <v>4241</v>
       </c>
       <c r="B88" t="str">
-        <v>Commission Income</v>
+        <v>Property Management Income</v>
       </c>
       <c r="C88" t="str">
         <v>Income</v>
       </c>
       <c r="D88" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
       <c r="E88" t="str">
-        <v>Commissions income on sales or referrals</v>
+        <v>Property Management Fees</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>4241</v>
+        <v>4300</v>
       </c>
       <c r="B89" t="str">
-        <v>Property Management Income</v>
+        <v>Service Charges</v>
       </c>
       <c r="C89" t="str">
         <v>Income</v>
       </c>
       <c r="D89" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
       <c r="E89" t="str">
-        <v>Property Management Fees</v>
+        <v>Service Charges</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90">
-        <v>4300</v>
-      </c>
       <c r="B90" t="str">
-        <v>Service Charges</v>
+        <v>Billable Expense Income</v>
       </c>
       <c r="C90" t="str">
         <v>Income</v>
       </c>
       <c r="D90" t="str">
-        <v>Revenue - Generalanjay</v>
-      </c>
-      <c r="E90" t="str">
-        <v>Service Charges</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="91">
       <c r="B91" t="str">
-        <v>Billable Expense Income</v>
+        <v>Income 11 Mackay</v>
       </c>
       <c r="C91" t="str">
         <v>Income</v>
       </c>
       <c r="D91" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="92">
       <c r="B92" t="str">
-        <v>Income 11 Mackay</v>
+        <v>Income 11 Mackay:Arthole</v>
       </c>
       <c r="C92" t="str">
         <v>Income</v>
       </c>
       <c r="D92" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="93">
       <c r="B93" t="str">
-        <v>Income 11 Mackay:Arthole</v>
+        <v>Income 11 Mackay:Audiomilitia (Pty) Ltd</v>
       </c>
       <c r="C93" t="str">
         <v>Income</v>
       </c>
       <c r="D93" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="94">
       <c r="B94" t="str">
-        <v>Income 11 Mackay:Audiomilitia (Pty) Ltd</v>
+        <v>Income 11 Mackay:Blue Motion</v>
       </c>
       <c r="C94" t="str">
         <v>Income</v>
       </c>
       <c r="D94" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="95">
       <c r="B95" t="str">
-        <v>Income 11 Mackay:Blue Motion</v>
+        <v>Income 11 Mackay:Capitol Collective</v>
       </c>
       <c r="C95" t="str">
         <v>Income</v>
       </c>
       <c r="D95" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="96">
       <c r="B96" t="str">
-        <v>Income 11 Mackay:Capitol Collective</v>
+        <v>Income 11 Mackay:Cash Sales</v>
       </c>
       <c r="C96" t="str">
         <v>Income</v>
       </c>
       <c r="D96" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="str">
-        <v>Income 11 Mackay:Cash Sales</v>
+        <v>Income 11 Mackay:Cleaning 11 Makcay</v>
       </c>
       <c r="C97" t="str">
         <v>Income</v>
       </c>
       <c r="D97" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="98">
       <c r="B98" t="str">
-        <v>Income 11 Mackay:Cleaning 11 Makcay</v>
+        <v>Income 11 Mackay:Dondoo Studios (Pty) Ltd</v>
       </c>
       <c r="C98" t="str">
         <v>Income</v>
       </c>
       <c r="D98" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="99">
       <c r="B99" t="str">
-        <v>Income 11 Mackay:Dondoo Studios (Pty) Ltd</v>
+        <v>Income 11 Mackay:Dopezuluboi Productions</v>
       </c>
       <c r="C99" t="str">
         <v>Income</v>
       </c>
       <c r="D99" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="100">
       <c r="B100" t="str">
-        <v>Income 11 Mackay:Dopezuluboi Productions</v>
+        <v>Income 11 Mackay:Dusk Too Dawn</v>
       </c>
       <c r="C100" t="str">
         <v>Income</v>
       </c>
       <c r="D100" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="101">
       <c r="B101" t="str">
-        <v>Income 11 Mackay:Dusk Too Dawn</v>
+        <v>Income 11 Mackay:Effluent</v>
       </c>
       <c r="C101" t="str">
         <v>Income</v>
       </c>
       <c r="D101" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="102">
       <c r="B102" t="str">
-        <v>Income 11 Mackay:Effluent</v>
+        <v>Income 11 Mackay:Egg Films</v>
       </c>
       <c r="C102" t="str">
         <v>Income</v>
       </c>
       <c r="D102" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="103">
       <c r="B103" t="str">
-        <v>Income 11 Mackay:Egg Films</v>
+        <v>Income 11 Mackay:Electricity</v>
       </c>
       <c r="C103" t="str">
         <v>Income</v>
       </c>
       <c r="D103" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="104">
       <c r="B104" t="str">
-        <v>Income 11 Mackay:Electricity</v>
+        <v>Income 11 Mackay:Electricity 11 Mackay</v>
       </c>
       <c r="C104" t="str">
         <v>Income</v>
       </c>
       <c r="D104" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="105">
       <c r="B105" t="str">
-        <v>Income 11 Mackay:Electricity 11 Mackay</v>
+        <v>Income 11 Mackay:Events / Film Shoots</v>
       </c>
       <c r="C105" t="str">
         <v>Income</v>
       </c>
       <c r="D105" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="106">
       <c r="B106" t="str">
-        <v>Income 11 Mackay:Events / Film Shoots</v>
+        <v>Income 11 Mackay:Exposure</v>
       </c>
       <c r="C106" t="str">
         <v>Income</v>
       </c>
       <c r="D106" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="107">
       <c r="B107" t="str">
-        <v>Income 11 Mackay:Exposure</v>
+        <v>Income 11 Mackay:Fallen Heroes</v>
       </c>
       <c r="C107" t="str">
         <v>Income</v>
       </c>
       <c r="D107" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="108">
       <c r="B108" t="str">
-        <v>Income 11 Mackay:Fallen Heroes</v>
+        <v>Income 11 Mackay:Forge Ignite Media and Entertai</v>
       </c>
       <c r="C108" t="str">
         <v>Income</v>
       </c>
       <c r="D108" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="109">
       <c r="B109" t="str">
-        <v>Income 11 Mackay:Forge Ignite Media and Entertai</v>
+        <v>Income 11 Mackay:General Post</v>
       </c>
       <c r="C109" t="str">
         <v>Income</v>
       </c>
       <c r="D109" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="110">
       <c r="B110" t="str">
-        <v>Income 11 Mackay:General Post</v>
+        <v>Income 11 Mackay:Headspace Neuromarketing</v>
       </c>
       <c r="C110" t="str">
         <v>Income</v>
       </c>
       <c r="D110" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="111">
       <c r="B111" t="str">
-        <v>Income 11 Mackay:Headspace Neuromarketing</v>
+        <v>Income 11 Mackay:House on Fire Post</v>
       </c>
       <c r="C111" t="str">
         <v>Income</v>
       </c>
       <c r="D111" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="112">
       <c r="B112" t="str">
-        <v>Income 11 Mackay:House on Fire Post</v>
+        <v>Income 11 Mackay:Internet rent from Dondoo</v>
       </c>
       <c r="C112" t="str">
         <v>Income</v>
       </c>
       <c r="D112" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="113">
       <c r="B113" t="str">
-        <v>Income 11 Mackay:Internet rent from Dondoo</v>
+        <v>Income 11 Mackay:KS Dube t/a Colours Hair &amp; Beau</v>
       </c>
       <c r="C113" t="str">
         <v>Income</v>
       </c>
       <c r="D113" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="114">
       <c r="B114" t="str">
-        <v>Income 11 Mackay:KS Dube t/a Colours Hair &amp; Beau</v>
+        <v>Income 11 Mackay:Left Post Productions CC</v>
       </c>
       <c r="C114" t="str">
         <v>Income</v>
       </c>
       <c r="D114" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="115">
       <c r="B115" t="str">
-        <v>Income 11 Mackay:Left Post Productions CC</v>
+        <v>Income 11 Mackay:Level 180</v>
       </c>
       <c r="C115" t="str">
         <v>Income</v>
       </c>
       <c r="D115" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="116">
       <c r="B116" t="str">
-        <v>Income 11 Mackay:Level 180</v>
+        <v>Income 11 Mackay:Luna Films</v>
       </c>
       <c r="C116" t="str">
         <v>Income</v>
       </c>
       <c r="D116" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="117">
       <c r="B117" t="str">
-        <v>Income 11 Mackay:Luna Films</v>
+        <v>Income 11 Mackay:Matthew Stonier</v>
       </c>
       <c r="C117" t="str">
         <v>Income</v>
       </c>
       <c r="D117" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="118">
       <c r="B118" t="str">
-        <v>Income 11 Mackay:Matthew Stonier</v>
+        <v>Income 11 Mackay:MOCAP Rental</v>
       </c>
       <c r="C118" t="str">
         <v>Income</v>
       </c>
       <c r="D118" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="119">
       <c r="B119" t="str">
-        <v>Income 11 Mackay:MOCAP Rental</v>
+        <v>Income 11 Mackay:Next Post</v>
       </c>
       <c r="C119" t="str">
         <v>Income</v>
       </c>
       <c r="D119" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="120">
       <c r="B120" t="str">
-        <v>Income 11 Mackay:Next Post</v>
+        <v>Income 11 Mackay:Operating Costs</v>
       </c>
       <c r="C120" t="str">
         <v>Income</v>
       </c>
       <c r="D120" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="121">
       <c r="B121" t="str">
-        <v>Income 11 Mackay:Operating Costs</v>
+        <v>Income 11 Mackay:Ops Costs</v>
       </c>
       <c r="C121" t="str">
         <v>Income</v>
       </c>
       <c r="D121" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="122">
       <c r="B122" t="str">
-        <v>Income 11 Mackay:Ops Costs</v>
+        <v>Income 11 Mackay:Oxyg3n Media (Pty) Ltd</v>
       </c>
       <c r="C122" t="str">
         <v>Income</v>
       </c>
       <c r="D122" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="123">
       <c r="B123" t="str">
-        <v>Income 11 Mackay:Oxyg3n Media (Pty) Ltd</v>
+        <v>Income 11 Mackay:Parking</v>
       </c>
       <c r="C123" t="str">
         <v>Income</v>
       </c>
       <c r="D123" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="124">
       <c r="B124" t="str">
-        <v>Income 11 Mackay:Parking</v>
+        <v>Income 11 Mackay:Radu Business Enterprise</v>
       </c>
       <c r="C124" t="str">
         <v>Income</v>
       </c>
       <c r="D124" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="125">
       <c r="B125" t="str">
-        <v>Income 11 Mackay:Radu Business Enterprise</v>
+        <v>Income 11 Mackay:Rates</v>
       </c>
       <c r="C125" t="str">
         <v>Income</v>
       </c>
       <c r="D125" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" t="str">
-        <v>Income 11 Mackay:Rates</v>
+        <v>Income 11 Mackay:Rates Income</v>
       </c>
       <c r="C126" t="str">
         <v>Income</v>
       </c>
       <c r="D126" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" t="str">
-        <v>Income 11 Mackay:Rates Income</v>
+        <v>Income 11 Mackay:Red Bull</v>
       </c>
       <c r="C127" t="str">
         <v>Income</v>
       </c>
       <c r="D127" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="128">
       <c r="B128" t="str">
-        <v>Income 11 Mackay:Red Bull</v>
+        <v>Income 11 Mackay:Refuse</v>
       </c>
       <c r="C128" t="str">
         <v>Income</v>
       </c>
       <c r="D128" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" t="str">
-        <v>Income 11 Mackay:Refuse</v>
+        <v>Income 11 Mackay:Robot TV</v>
       </c>
       <c r="C129" t="str">
         <v>Income</v>
       </c>
       <c r="D129" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" t="str">
-        <v>Income 11 Mackay:Robot TV</v>
+        <v>Income 11 Mackay:S'Curl and Cutt</v>
       </c>
       <c r="C130" t="str">
         <v>Income</v>
       </c>
       <c r="D130" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" t="str">
-        <v>Income 11 Mackay:S'Curl and Cutt</v>
+        <v>Income 11 Mackay:Sam ML Dikgale</v>
       </c>
       <c r="C131" t="str">
         <v>Income</v>
       </c>
       <c r="D131" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" t="str">
-        <v>Income 11 Mackay:Sam ML Dikgale</v>
+        <v>Income 11 Mackay:Savage Design (Pty) Ltd</v>
       </c>
       <c r="C132" t="str">
         <v>Income</v>
       </c>
       <c r="D132" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" t="str">
-        <v>Income 11 Mackay:Savage Design (Pty) Ltd</v>
+        <v>Income 11 Mackay:Security</v>
       </c>
       <c r="C133" t="str">
         <v>Income</v>
       </c>
       <c r="D133" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="134">
       <c r="B134" t="str">
-        <v>Income 11 Mackay:Security</v>
+        <v>Income 11 Mackay:Sphere Collective</v>
       </c>
       <c r="C134" t="str">
         <v>Income</v>
       </c>
       <c r="D134" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="135">
       <c r="B135" t="str">
-        <v>Income 11 Mackay:Sphere Collective</v>
+        <v>Income 11 Mackay:The Rudeboy Collective</v>
       </c>
       <c r="C135" t="str">
         <v>Income</v>
       </c>
       <c r="D135" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="136">
       <c r="B136" t="str">
-        <v>Income 11 Mackay:The Rudeboy Collective</v>
+        <v>Income 11 Mackay:They Shoot Films</v>
       </c>
       <c r="C136" t="str">
         <v>Income</v>
       </c>
       <c r="D136" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="137">
       <c r="B137" t="str">
-        <v>Income 11 Mackay:They Shoot Films</v>
+        <v>Income 11 Mackay:Torque (Y&amp;V Agency)</v>
       </c>
       <c r="C137" t="str">
         <v>Income</v>
       </c>
       <c r="D137" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="138">
       <c r="B138" t="str">
-        <v>Income 11 Mackay:Torque (Y&amp;V Agency)</v>
+        <v>Income 11 Mackay:Transvaal (Pty) Ltd</v>
       </c>
       <c r="C138" t="str">
         <v>Income</v>
       </c>
       <c r="D138" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" t="str">
-        <v>Income 11 Mackay:Transvaal (Pty) Ltd</v>
+        <v>Income 11 Mackay:Unit 1B-3 Part Time Rentals</v>
       </c>
       <c r="C139" t="str">
         <v>Income</v>
       </c>
       <c r="D139" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="140">
       <c r="B140" t="str">
-        <v>Income 11 Mackay:Unit 1B-3 Part Time Rentals</v>
+        <v>Income 11 Mackay:Voice Overs &amp; Stuff</v>
       </c>
       <c r="C140" t="str">
         <v>Income</v>
       </c>
       <c r="D140" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" t="str">
-        <v>Income 11 Mackay:Voice Overs &amp; Stuff</v>
+        <v>Income 11 Mackay:Waste Management 11 Mackay</v>
       </c>
       <c r="C141" t="str">
         <v>Income</v>
       </c>
       <c r="D141" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="142">
       <c r="B142" t="str">
-        <v>Income 11 Mackay:Waste Management 11 Mackay</v>
+        <v>Income 11 Mackay:Water</v>
       </c>
       <c r="C142" t="str">
         <v>Income</v>
       </c>
       <c r="D142" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="143">
       <c r="B143" t="str">
-        <v>Income 11 Mackay:Water</v>
+        <v>Income 11 Mackay:Water 11 Mackay</v>
       </c>
       <c r="C143" t="str">
         <v>Income</v>
       </c>
       <c r="D143" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="144">
       <c r="B144" t="str">
-        <v>Income 11 Mackay:Water 11 Mackay</v>
+        <v>Income 11 Mackay:Wishbones CC</v>
       </c>
       <c r="C144" t="str">
         <v>Income</v>
       </c>
       <c r="D144" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="145">
       <c r="B145" t="str">
-        <v>Income 11 Mackay:Wishbones CC</v>
+        <v>Income 11 Mackay:Xantium Trading (Pty) Ltd</v>
       </c>
       <c r="C145" t="str">
         <v>Income</v>
       </c>
       <c r="D145" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" t="str">
-        <v>Income 11 Mackay:Xantium Trading (Pty) Ltd</v>
+        <v>Income 11 Mackay:Xantium Trading (Pty) Ltd:Church</v>
       </c>
       <c r="C146" t="str">
         <v>Income</v>
       </c>
       <c r="D146" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="147">
       <c r="B147" t="str">
-        <v>Income 11 Mackay:Xantium Trading (Pty) Ltd:Church</v>
+        <v>Income 11 Mackay:Xantium Trading (Pty) Ltd:Northmotion Ins of Development</v>
       </c>
       <c r="C147" t="str">
         <v>Income</v>
       </c>
       <c r="D147" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="148">
       <c r="B148" t="str">
-        <v>Income 11 Mackay:Xantium Trading (Pty) Ltd:Northmotion Ins of Development</v>
+        <v>Income 18 Mackay</v>
       </c>
       <c r="C148" t="str">
         <v>Income</v>
       </c>
       <c r="D148" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="149">
       <c r="B149" t="str">
-        <v>Income 18 Mackay</v>
+        <v>Income 18 Mackay:Cleaning 18 Mackay</v>
       </c>
       <c r="C149" t="str">
         <v>Income</v>
       </c>
       <c r="D149" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="150">
       <c r="B150" t="str">
-        <v>Income 18 Mackay:Cleaning 18 Mackay</v>
+        <v>Income 18 Mackay:Electricity 18 Mackay</v>
       </c>
       <c r="C150" t="str">
         <v>Income</v>
       </c>
       <c r="D150" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" t="str">
-        <v>Income 18 Mackay:Electricity 18 Mackay</v>
+        <v>Income 18 Mackay:Recovered Expenses</v>
       </c>
       <c r="C151" t="str">
         <v>Income</v>
       </c>
       <c r="D151" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="152">
       <c r="B152" t="str">
-        <v>Income 18 Mackay:Recovered Expenses</v>
+        <v>Income 18 Mackay:Rent House A</v>
       </c>
       <c r="C152" t="str">
         <v>Income</v>
       </c>
       <c r="D152" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="153">
       <c r="B153" t="str">
-        <v>Income 18 Mackay:Rent House A</v>
+        <v>Income 18 Mackay:Rent House B</v>
       </c>
       <c r="C153" t="str">
         <v>Income</v>
       </c>
       <c r="D153" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="154">
       <c r="B154" t="str">
-        <v>Income 18 Mackay:Rent House B</v>
+        <v>Income 18 Mackay:Waste Management 18 Mackay</v>
       </c>
       <c r="C154" t="str">
         <v>Income</v>
       </c>
       <c r="D154" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="155">
       <c r="B155" t="str">
-        <v>Income 18 Mackay:Waste Management 18 Mackay</v>
+        <v>Income 18 Mackay:Water 18 Mackay</v>
       </c>
       <c r="C155" t="str">
         <v>Income</v>
       </c>
       <c r="D155" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="156">
       <c r="B156" t="str">
-        <v>Income 18 Mackay:Water 18 Mackay</v>
+        <v>Income 9 Mackay</v>
       </c>
       <c r="C156" t="str">
         <v>Income</v>
       </c>
       <c r="D156" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="157">
       <c r="B157" t="str">
-        <v>Income 9 Mackay</v>
+        <v>Income 9 Mackay:Electricity 9 Mackay</v>
       </c>
       <c r="C157" t="str">
         <v>Income</v>
       </c>
       <c r="D157" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="158">
       <c r="B158" t="str">
-        <v>Income 9 Mackay:Electricity 9 Mackay</v>
+        <v>Income 9 Mackay:Insurance</v>
       </c>
       <c r="C158" t="str">
         <v>Income</v>
       </c>
       <c r="D158" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="str">
-        <v>Income 9 Mackay:Insurance</v>
+        <v>Income 9 Mackay:Patisserie De Paris</v>
       </c>
       <c r="C159" t="str">
         <v>Income</v>
       </c>
       <c r="D159" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="160">
       <c r="B160" t="str">
-        <v>Income 9 Mackay:Patisserie De Paris</v>
+        <v>Income 9 Mackay:Rates 9 Mackay</v>
       </c>
       <c r="C160" t="str">
         <v>Income</v>
       </c>
       <c r="D160" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="161">
       <c r="B161" t="str">
-        <v>Income 9 Mackay:Rates 9 Mackay</v>
+        <v>Income 9 Mackay:Refuse 9 Mackay</v>
       </c>
       <c r="C161" t="str">
         <v>Income</v>
       </c>
       <c r="D161" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="162">
       <c r="B162" t="str">
-        <v>Income 9 Mackay:Refuse 9 Mackay</v>
+        <v>Income 9 Mackay:Sundry 9 Mackay</v>
       </c>
       <c r="C162" t="str">
         <v>Income</v>
       </c>
       <c r="D162" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" t="str">
-        <v>Income 9 Mackay:Sundry 9 Mackay</v>
+        <v>Income 9 Mackay:Water 9 Mackay</v>
       </c>
       <c r="C163" t="str">
         <v>Income</v>
       </c>
       <c r="D163" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="164">
       <c r="B164" t="str">
-        <v>Income 9 Mackay:Water 9 Mackay</v>
+        <v>Income Recovered Expenses</v>
       </c>
       <c r="C164" t="str">
         <v>Income</v>
       </c>
       <c r="D164" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="165">
       <c r="B165" t="str">
-        <v>Income Recovered Expenses</v>
+        <v>Insurance Claims</v>
       </c>
       <c r="C165" t="str">
         <v>Income</v>
       </c>
       <c r="D165" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" t="str">
-        <v>Insurance Claims</v>
+        <v>Pre Paid Electricity - Income</v>
       </c>
       <c r="C166" t="str">
         <v>Income</v>
       </c>
       <c r="D166" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" t="str">
-        <v>Pre Paid Electricity - Income</v>
+        <v>Pre Paid Electricity - Income:11 Mackay Prepaid Purchased</v>
       </c>
       <c r="C167" t="str">
         <v>Income</v>
       </c>
       <c r="D167" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="168">
       <c r="B168" t="str">
-        <v>Pre Paid Electricity - Income:11 Mackay Prepaid Purchased</v>
+        <v>Pre Paid Electricity - Income:18 Mackay Pre Paid Purchased</v>
       </c>
       <c r="C168" t="str">
         <v>Income</v>
       </c>
       <c r="D168" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="169">
       <c r="B169" t="str">
-        <v>Pre Paid Electricity - Income:18 Mackay Pre Paid Purchased</v>
+        <v>S'Curl and Cutt</v>
       </c>
       <c r="C169" t="str">
         <v>Income</v>
       </c>
       <c r="D169" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="170">
       <c r="B170" t="str">
-        <v>S'Curl and Cutt</v>
+        <v>Sales</v>
       </c>
       <c r="C170" t="str">
         <v>Income</v>
       </c>
       <c r="D170" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" t="str">
-        <v>Sales</v>
+        <v>ServiceIncome</v>
       </c>
       <c r="C171" t="str">
         <v>Income</v>
       </c>
       <c r="D171" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="172">
       <c r="B172" t="str">
-        <v>ServiceIncome</v>
+        <v>Services</v>
       </c>
       <c r="C172" t="str">
         <v>Income</v>
       </c>
       <c r="D172" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="173">
       <c r="B173" t="str">
-        <v>Services</v>
+        <v>Unapplied Cash Payment Income</v>
       </c>
       <c r="C173" t="str">
         <v>Income</v>
       </c>
       <c r="D173" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="174">
       <c r="B174" t="str">
-        <v>Unapplied Cash Payment Income</v>
+        <v>Uncategorised Income</v>
       </c>
       <c r="C174" t="str">
         <v>Income</v>
       </c>
       <c r="D174" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="175">
       <c r="B175" t="str">
-        <v>Uncategorised Income</v>
+        <v>Utilities Recovered 11 Mackay</v>
       </c>
       <c r="C175" t="str">
         <v>Income</v>
       </c>
       <c r="D175" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Revenue - General</v>
       </c>
     </row>
     <row r="176">
+      <c r="A176">
+        <v>5000</v>
+      </c>
       <c r="B176" t="str">
-        <v>Utilities Recovered 11 Mackay</v>
+        <v>Cost of Goods Sold</v>
       </c>
       <c r="C176" t="str">
-        <v>Income</v>
+        <v>Cost of sales</v>
       </c>
       <c r="D176" t="str">
-        <v>Revenue - Generalanjay</v>
+        <v>Supplies and materials - COS</v>
+      </c>
+      <c r="E176" t="str">
+        <v>Costs of items purchased and then sold to customers</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="B177" t="str">
-        <v>Cost of Goods Sold</v>
+        <v>Advertising and Promotion</v>
       </c>
       <c r="C177" t="str">
-        <v>Cost of sales</v>
+        <v>Expenses</v>
       </c>
       <c r="D177" t="str">
-        <v>Supplies and materials - COSanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E177" t="str">
-        <v>Costs of items purchased and then sold to customers</v>
+        <v>Advertising, marketing, graphic design, and other promotional expenses</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>6000</v>
+        <v>6020</v>
       </c>
       <c r="B178" t="str">
-        <v>Advertising and Promotion</v>
+        <v>Vehicle Expense</v>
       </c>
       <c r="C178" t="str">
         <v>Expenses</v>
       </c>
       <c r="D178" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E178" t="str">
-        <v>Advertising, marketing, graphic design, and other promotional expenses</v>
+        <v>Fuel, oil, repairs, and other automobile maintenance for business autos</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>6020</v>
+        <v>6200</v>
       </c>
       <c r="B179" t="str">
-        <v>Vehicle Expense</v>
+        <v>Staff Training</v>
       </c>
       <c r="C179" t="str">
         <v>Expenses</v>
       </c>
       <c r="D179" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E179" t="str">
-        <v>Fuel, oil, repairs, and other automobile maintenance for business autos</v>
+        <v>Seminars, educational expenses and employee development, not including travel</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>6200</v>
+        <v>6240</v>
       </c>
       <c r="B180" t="str">
-        <v>Staff Training</v>
+        <v>Depreciation Expense</v>
       </c>
       <c r="C180" t="str">
         <v>Expenses</v>
       </c>
       <c r="D180" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E180" t="str">
-        <v>Seminars, educational expenses and employee development, not including travel</v>
+        <v>Depreciation on equipment, buildings and improvements</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>6240</v>
+        <v>6250</v>
       </c>
       <c r="B181" t="str">
-        <v>Depreciation Expense</v>
+        <v>Dues and Subscriptions</v>
       </c>
       <c r="C181" t="str">
         <v>Expenses</v>
       </c>
       <c r="D181" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E181" t="str">
-        <v>Depreciation on equipment, buildings and improvements</v>
+        <v>Subscriptions and membership dues for civic, service, professional, trade organisations</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>6250</v>
+        <v>6260</v>
       </c>
       <c r="B182" t="str">
-        <v>Dues and Subscriptions</v>
+        <v>Equipment Rental</v>
       </c>
       <c r="C182" t="str">
         <v>Expenses</v>
       </c>
       <c r="D182" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E182" t="str">
-        <v>Subscriptions and membership dues for civic, service, professional, trade organisations</v>
+        <v>Rent paid for rented equipment used for business</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>6260</v>
+        <v>6330</v>
       </c>
       <c r="B183" t="str">
-        <v>Equipment Rental</v>
+        <v>Insurance Expense</v>
       </c>
       <c r="C183" t="str">
         <v>Expenses</v>
       </c>
       <c r="D183" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E183" t="str">
-        <v>Rent paid for rented equipment used for business</v>
+        <v>Insurance expenses</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>6330</v>
+        <v>6340</v>
       </c>
       <c r="B184" t="str">
-        <v>Insurance Expense</v>
+        <v>Interest Expense</v>
       </c>
       <c r="C184" t="str">
         <v>Expenses</v>
       </c>
       <c r="D184" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E184" t="str">
-        <v>Insurance expenses</v>
+        <v>Interest payments on business loans, credit card balances, or other business debt</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>6340</v>
+        <v>6370</v>
       </c>
       <c r="B185" t="str">
-        <v>Interest Expense</v>
+        <v>Landscaping and Groundskeeping</v>
       </c>
       <c r="C185" t="str">
         <v>Expenses</v>
       </c>
       <c r="D185" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E185" t="str">
-        <v>Interest payments on business loans, credit card balances, or other business debt</v>
+        <v>Landscape maintenance, lawn mowing, gardening expenses</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>6370</v>
+        <v>6470</v>
       </c>
       <c r="B186" t="str">
-        <v>Landscaping and Groundskeeping</v>
+        <v>Miscellaneous Expense</v>
       </c>
       <c r="C186" t="str">
         <v>Expenses</v>
       </c>
       <c r="D186" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E186" t="str">
-        <v>Landscape maintenance, lawn mowing, gardening expenses</v>
+        <v>Miscellaneous expenses not categorized elsewhere. Use memo field to describe business purpose</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>6470</v>
+        <v>6490</v>
       </c>
       <c r="B187" t="str">
-        <v>Miscellaneous Expense</v>
+        <v>Office Expense</v>
       </c>
       <c r="C187" t="str">
         <v>Expenses</v>
       </c>
       <c r="D187" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E187" t="str">
-        <v>Miscellaneous expenses not categorized elsewhere. Use memo field to describe business purpose</v>
+        <v>Office Expense</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>6490</v>
+        <v>6600</v>
       </c>
       <c r="B188" t="str">
-        <v>Office Expense</v>
+        <v>Payroll Expenses</v>
       </c>
       <c r="C188" t="str">
         <v>Expenses</v>
       </c>
       <c r="D188" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E188" t="str">
-        <v>Office Expense</v>
+        <v>Employee related payroll expenses</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>6600</v>
+        <v>6650</v>
       </c>
       <c r="B189" t="str">
-        <v>Payroll Expenses</v>
+        <v>Postage and Delivery</v>
       </c>
       <c r="C189" t="str">
         <v>Expenses</v>
       </c>
       <c r="D189" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E189" t="str">
-        <v>Employee related payroll expenses</v>
+        <v>Postage, courier, and pickup and delivery services</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>6650</v>
+        <v>6670</v>
       </c>
       <c r="B190" t="str">
-        <v>Postage and Delivery</v>
+        <v>Professional Fees</v>
       </c>
       <c r="C190" t="str">
         <v>Expenses</v>
       </c>
       <c r="D190" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E190" t="str">
-        <v>Postage, courier, and pickup and delivery services</v>
+        <v>Payments to accounting professionals and attorneys for accounting or legal services</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>6670</v>
+        <v>6710</v>
       </c>
       <c r="B191" t="str">
-        <v>Professional Fees</v>
+        <v>Rent and Rates</v>
       </c>
       <c r="C191" t="str">
         <v>Expenses</v>
       </c>
       <c r="D191" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E191" t="str">
-        <v>Payments to accounting professionals and attorneys for accounting or legal services</v>
+        <v>Rent and rates paid in the business</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>6710</v>
+        <v>6720</v>
       </c>
       <c r="B192" t="str">
-        <v>Rent and Rates</v>
+        <v>Repairs and Maint  - 11 Mackay</v>
       </c>
       <c r="C192" t="str">
         <v>Expenses</v>
       </c>
       <c r="D192" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E192" t="str">
-        <v>Rent and rates paid in the business</v>
+        <v>Incidental repairs and maintenance of business assets that do not add to the value or appreciably pr</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>6720</v>
+        <v>6800</v>
       </c>
       <c r="B193" t="str">
-        <v>Repairs and Maint  - 11 Mackay</v>
+        <v>Taxes</v>
       </c>
       <c r="C193" t="str">
         <v>Expenses</v>
       </c>
       <c r="D193" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E193" t="str">
-        <v>Incidental repairs and maintenance of business assets that do not add to the value or appreciably pr</v>
+        <v>Corporation Tax Charge</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>6800</v>
+        <v>6810</v>
       </c>
       <c r="B194" t="str">
-        <v>Taxes</v>
+        <v>Telephone</v>
       </c>
       <c r="C194" t="str">
         <v>Expenses</v>
       </c>
       <c r="D194" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E194" t="str">
-        <v>Corporation Tax Charge</v>
+        <v>Telephone and long distance charges, faxing, and other fees Not equipment purchases</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>6810</v>
+        <v>6840</v>
       </c>
       <c r="B195" t="str">
-        <v>Telephone</v>
+        <v>Travelling</v>
       </c>
       <c r="C195" t="str">
         <v>Expenses</v>
       </c>
       <c r="D195" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E195" t="str">
-        <v>Telephone and long distance charges, faxing, and other fees Not equipment purchases</v>
+        <v>Business-related travel expenses including airline tickets, taxi fares, hotel and other travel expen</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>6840</v>
+        <v>6860</v>
       </c>
       <c r="B196" t="str">
-        <v>Travelling</v>
+        <v>Utilities</v>
       </c>
       <c r="C196" t="str">
         <v>Expenses</v>
       </c>
       <c r="D196" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E196" t="str">
-        <v>Business-related travel expenses including airline tickets, taxi fares, hotel and other travel expen</v>
+        <v>Water, gas and electricity expenses</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>6860</v>
+        <v>6980</v>
       </c>
       <c r="B197" t="str">
-        <v>Utilities</v>
+        <v>Uncategorized Expenses</v>
       </c>
       <c r="C197" t="str">
         <v>Expenses</v>
       </c>
       <c r="D197" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
       <c r="E197" t="str">
-        <v>Water, gas and electricity expenses</v>
+        <v>Expenses not categorized elsewhere</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198">
-        <v>6980</v>
-      </c>
       <c r="B198" t="str">
-        <v>Uncategorized Expenses</v>
+        <v>Accounting / Auditing Fees</v>
       </c>
       <c r="C198" t="str">
         <v>Expenses</v>
       </c>
       <c r="D198" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
-      </c>
-      <c r="E198" t="str">
-        <v>Expenses not categorized elsewhere</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="199">
       <c r="B199" t="str">
-        <v>Accounting / Auditing Fees</v>
+        <v>Administration Fee</v>
       </c>
       <c r="C199" t="str">
         <v>Expenses</v>
       </c>
       <c r="D199" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="200">
       <c r="B200" t="str">
-        <v>Administration Fee</v>
+        <v>Assets &lt; R5 000</v>
       </c>
       <c r="C200" t="str">
         <v>Expenses</v>
       </c>
       <c r="D200" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="201">
       <c r="B201" t="str">
-        <v>Assets &lt; R5 000</v>
+        <v>Assets &lt; R5 000:11 Mackay Assets &lt; R5 000</v>
       </c>
       <c r="C201" t="str">
         <v>Expenses</v>
       </c>
       <c r="D201" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="202">
       <c r="B202" t="str">
-        <v>Assets &lt; R5 000:11 Mackay Assets &lt; R5 000</v>
+        <v>Assets &lt; R5 000:18 Mackay Assets &lt; R5 000</v>
       </c>
       <c r="C202" t="str">
         <v>Expenses</v>
       </c>
       <c r="D202" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="203">
       <c r="B203" t="str">
-        <v>Assets &lt; R5 000:18 Mackay Assets &lt; R5 000</v>
+        <v>Bad Debt</v>
       </c>
       <c r="C203" t="str">
         <v>Expenses</v>
       </c>
       <c r="D203" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="204">
       <c r="B204" t="str">
-        <v>Bad Debt</v>
+        <v>Bank Charges</v>
       </c>
       <c r="C204" t="str">
         <v>Expenses</v>
       </c>
       <c r="D204" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="205">
       <c r="B205" t="str">
-        <v>Bank Charges</v>
+        <v>Casual Wages</v>
       </c>
       <c r="C205" t="str">
         <v>Expenses</v>
       </c>
       <c r="D205" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" t="str">
-        <v>Casual Wages</v>
+        <v>City of JHB Surcharge</v>
       </c>
       <c r="C206" t="str">
         <v>Expenses</v>
       </c>
       <c r="D206" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="207">
       <c r="B207" t="str">
-        <v>City of JHB Surcharge</v>
+        <v>City of JHB Surcharge:Surcharge 11 Mackay</v>
       </c>
       <c r="C207" t="str">
         <v>Expenses</v>
       </c>
       <c r="D207" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="208">
       <c r="B208" t="str">
-        <v>City of JHB Surcharge:Surcharge 11 Mackay</v>
+        <v>City of JHB Surcharge:Surcharge 18 Mackay</v>
       </c>
       <c r="C208" t="str">
         <v>Expenses</v>
       </c>
       <c r="D208" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="209">
       <c r="B209" t="str">
-        <v>City of JHB Surcharge:Surcharge 18 Mackay</v>
+        <v>City of JHB Surcharge:Surcharge 9 Mackay</v>
       </c>
       <c r="C209" t="str">
         <v>Expenses</v>
       </c>
       <c r="D209" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="210">
       <c r="B210" t="str">
-        <v>City of JHB Surcharge:Surcharge 9 Mackay</v>
+        <v>Cleaning</v>
       </c>
       <c r="C210" t="str">
         <v>Expenses</v>
       </c>
       <c r="D210" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" t="str">
-        <v>Cleaning</v>
+        <v>Cleaning:Cleaning 11 Mackay</v>
       </c>
       <c r="C211" t="str">
         <v>Expenses</v>
       </c>
       <c r="D211" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="212">
       <c r="B212" t="str">
-        <v>Cleaning:Cleaning 11 Mackay</v>
+        <v>Cleaning:Cleaning 18 Mackay</v>
       </c>
       <c r="C212" t="str">
         <v>Expenses</v>
       </c>
       <c r="D212" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="213">
       <c r="B213" t="str">
-        <v>Cleaning:Cleaning 18 Mackay</v>
+        <v>Commission Expense</v>
       </c>
       <c r="C213" t="str">
         <v>Expenses</v>
       </c>
       <c r="D213" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="214">
       <c r="B214" t="str">
-        <v>Commission Expense</v>
+        <v>Commission Expense:Commissions Rental Agents</v>
       </c>
       <c r="C214" t="str">
         <v>Expenses</v>
       </c>
       <c r="D214" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="215">
       <c r="B215" t="str">
-        <v>Commission Expense:Commissions Rental Agents</v>
+        <v>Commission Expense:JKNV commission 11 Mackay</v>
       </c>
       <c r="C215" t="str">
         <v>Expenses</v>
       </c>
       <c r="D215" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="216">
       <c r="B216" t="str">
-        <v>Commission Expense:JKNV commission 11 Mackay</v>
+        <v>Commission Expense:JKNV commission 18 Mackay</v>
       </c>
       <c r="C216" t="str">
         <v>Expenses</v>
       </c>
       <c r="D216" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="217">
       <c r="B217" t="str">
-        <v>Commission Expense:JKNV commission 18 Mackay</v>
+        <v>Consulting</v>
       </c>
       <c r="C217" t="str">
         <v>Expenses</v>
       </c>
       <c r="D217" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="218">
       <c r="B218" t="str">
-        <v>Consulting</v>
+        <v>Deferred Tax (AUD)</v>
       </c>
       <c r="C218" t="str">
         <v>Expenses</v>
       </c>
       <c r="D218" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="219">
       <c r="B219" t="str">
-        <v>Deferred Tax (AUD)</v>
+        <v>Deferred Tax Ass'd Loss (AUD2)</v>
       </c>
       <c r="C219" t="str">
         <v>Expenses</v>
       </c>
       <c r="D219" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="220">
       <c r="B220" t="str">
-        <v>Deferred Tax Ass'd Loss (AUD2)</v>
+        <v>Deferred Taxation -Current year</v>
       </c>
       <c r="C220" t="str">
         <v>Expenses</v>
       </c>
       <c r="D220" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="221">
       <c r="B221" t="str">
-        <v>Deferred Taxation -Current year</v>
+        <v>Electricity</v>
       </c>
       <c r="C221" t="str">
         <v>Expenses</v>
       </c>
       <c r="D221" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="222">
       <c r="B222" t="str">
-        <v>Electricity</v>
+        <v>Electricity:Electricity 11 Mackay Exp</v>
       </c>
       <c r="C222" t="str">
         <v>Expenses</v>
       </c>
       <c r="D222" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" t="str">
-        <v>Electricity:Electricity 11 Mackay Exp</v>
+        <v>Electricity:Electricity 18 Mackay Exp</v>
       </c>
       <c r="C223" t="str">
         <v>Expenses</v>
       </c>
       <c r="D223" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="224">
       <c r="B224" t="str">
-        <v>Electricity:Electricity 18 Mackay Exp</v>
+        <v>Electricity:Electricity 9 Mackay Exp</v>
       </c>
       <c r="C224" t="str">
         <v>Expenses</v>
       </c>
       <c r="D224" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="225">
       <c r="B225" t="str">
-        <v>Electricity:Electricity 9 Mackay Exp</v>
+        <v>Entertainment</v>
       </c>
       <c r="C225" t="str">
         <v>Expenses</v>
       </c>
       <c r="D225" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="226">
       <c r="B226" t="str">
-        <v>Entertainment</v>
+        <v>Excess paid</v>
       </c>
       <c r="C226" t="str">
         <v>Expenses</v>
       </c>
       <c r="D226" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" t="str">
-        <v>Excess paid</v>
+        <v>Fair value Adjustment</v>
       </c>
       <c r="C227" t="str">
         <v>Expenses</v>
       </c>
       <c r="D227" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="228">
       <c r="B228" t="str">
-        <v>Fair value Adjustment</v>
+        <v>Gifts</v>
       </c>
       <c r="C228" t="str">
         <v>Expenses</v>
       </c>
       <c r="D228" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="229">
       <c r="B229" t="str">
-        <v>Gifts</v>
+        <v>Interest Exp Standard Bank Loan</v>
       </c>
       <c r="C229" t="str">
         <v>Expenses</v>
       </c>
       <c r="D229" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="230">
       <c r="B230" t="str">
-        <v>Interest Exp Standard Bank Loan</v>
+        <v>Legal Fees</v>
       </c>
       <c r="C230" t="str">
         <v>Expenses</v>
       </c>
       <c r="D230" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="231">
       <c r="B231" t="str">
-        <v>Legal Fees</v>
+        <v>Marketing</v>
       </c>
       <c r="C231" t="str">
         <v>Expenses</v>
       </c>
       <c r="D231" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="232">
       <c r="B232" t="str">
-        <v>Marketing</v>
+        <v>Penalties</v>
       </c>
       <c r="C232" t="str">
         <v>Expenses</v>
       </c>
       <c r="D232" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="233">
       <c r="B233" t="str">
-        <v>Penalties</v>
+        <v>Printing &amp; Stationery</v>
       </c>
       <c r="C233" t="str">
         <v>Expenses</v>
       </c>
       <c r="D233" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="234">
       <c r="B234" t="str">
-        <v>Printing &amp; Stationery</v>
+        <v>R&amp;T 9 Makcay</v>
       </c>
       <c r="C234" t="str">
         <v>Expenses</v>
       </c>
       <c r="D234" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="235">
       <c r="B235" t="str">
-        <v>R&amp;T 9 Makcay</v>
+        <v>Rates &amp; Taxes</v>
       </c>
       <c r="C235" t="str">
         <v>Expenses</v>
       </c>
       <c r="D235" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="236">
       <c r="B236" t="str">
-        <v>Rates &amp; Taxes</v>
+        <v>Rates &amp; Taxes:R&amp;T 11 Mackay</v>
       </c>
       <c r="C236" t="str">
         <v>Expenses</v>
       </c>
       <c r="D236" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="237">
       <c r="B237" t="str">
-        <v>Rates &amp; Taxes:R&amp;T 11 Mackay</v>
+        <v>Rates &amp; Taxes:R&amp;T 18 Mackay Ave</v>
       </c>
       <c r="C237" t="str">
         <v>Expenses</v>
       </c>
       <c r="D237" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="238">
       <c r="B238" t="str">
-        <v>Rates &amp; Taxes:R&amp;T 18 Mackay Ave</v>
+        <v>Rates &amp; Taxes:R&amp;T 9 Mackay</v>
       </c>
       <c r="C238" t="str">
         <v>Expenses</v>
       </c>
       <c r="D238" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="239">
       <c r="B239" t="str">
-        <v>Rates &amp; Taxes:R&amp;T 9 Mackay</v>
+        <v>Refreshments</v>
       </c>
       <c r="C239" t="str">
         <v>Expenses</v>
       </c>
       <c r="D239" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="240">
       <c r="B240" t="str">
-        <v>Refreshments</v>
+        <v>Repairs &amp; Maint - 18 Mackay</v>
       </c>
       <c r="C240" t="str">
         <v>Expenses</v>
       </c>
       <c r="D240" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="241">
       <c r="B241" t="str">
-        <v>Repairs &amp; Maint - 18 Mackay</v>
+        <v>Repairs &amp; Maint - 9 Mackay</v>
       </c>
       <c r="C241" t="str">
         <v>Expenses</v>
       </c>
       <c r="D241" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="242">
       <c r="B242" t="str">
-        <v>Repairs &amp; Maint - 9 Mackay</v>
+        <v>Salaries</v>
       </c>
       <c r="C242" t="str">
         <v>Expenses</v>
       </c>
       <c r="D242" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="243">
       <c r="B243" t="str">
-        <v>Salaries</v>
+        <v>Salaries:Mumsie</v>
       </c>
       <c r="C243" t="str">
         <v>Expenses</v>
       </c>
       <c r="D243" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="244">
       <c r="B244" t="str">
-        <v>Salaries:Mumsie</v>
+        <v>Salaries:Tanya</v>
       </c>
       <c r="C244" t="str">
         <v>Expenses</v>
       </c>
       <c r="D244" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="245">
       <c r="B245" t="str">
-        <v>Salaries:Tanya</v>
+        <v>Salaries:Zenzozenkosi</v>
       </c>
       <c r="C245" t="str">
         <v>Expenses</v>
       </c>
       <c r="D245" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="246">
       <c r="B246" t="str">
-        <v>Salaries:Zenzozenkosi</v>
+        <v>SARS Penalties &amp; Interest</v>
       </c>
       <c r="C246" t="str">
         <v>Expenses</v>
       </c>
       <c r="D246" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="247">
       <c r="B247" t="str">
-        <v>SARS Penalties &amp; Interest</v>
+        <v>Security</v>
       </c>
       <c r="C247" t="str">
         <v>Expenses</v>
       </c>
       <c r="D247" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="248">
       <c r="B248" t="str">
-        <v>Security</v>
+        <v>ServiceExpense</v>
       </c>
       <c r="C248" t="str">
         <v>Expenses</v>
       </c>
       <c r="D248" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="249">
       <c r="B249" t="str">
-        <v>ServiceExpense</v>
+        <v>Tenant Installations</v>
       </c>
       <c r="C249" t="str">
         <v>Expenses</v>
       </c>
       <c r="D249" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="250">
       <c r="B250" t="str">
-        <v>Tenant Installations</v>
+        <v>Tenant Installations:Imaginary Media</v>
       </c>
       <c r="C250" t="str">
         <v>Expenses</v>
       </c>
       <c r="D250" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="251">
       <c r="B251" t="str">
-        <v>Tenant Installations:Imaginary Media</v>
+        <v>Travelling:Parking &amp; Toll Fees</v>
       </c>
       <c r="C251" t="str">
         <v>Expenses</v>
       </c>
       <c r="D251" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="252">
       <c r="B252" t="str">
-        <v>Travelling:Parking &amp; Toll Fees</v>
+        <v>Travelling:Uber / Gautrain</v>
       </c>
       <c r="C252" t="str">
         <v>Expenses</v>
       </c>
       <c r="D252" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="253">
       <c r="B253" t="str">
-        <v>Travelling:Uber / Gautrain</v>
+        <v>UIF Co Contribution</v>
       </c>
       <c r="C253" t="str">
         <v>Expenses</v>
       </c>
       <c r="D253" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="254">
       <c r="B254" t="str">
-        <v>UIF Co Contribution</v>
+        <v>Unapplied Cash Bill Payment Expense</v>
       </c>
       <c r="C254" t="str">
         <v>Expenses</v>
       </c>
       <c r="D254" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="255">
       <c r="B255" t="str">
-        <v>Unapplied Cash Bill Payment Expense</v>
+        <v>Uncategorised Expense</v>
       </c>
       <c r="C255" t="str">
         <v>Expenses</v>
       </c>
       <c r="D255" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="256">
       <c r="B256" t="str">
-        <v>Uncategorised Expense</v>
+        <v>Uniforms</v>
       </c>
       <c r="C256" t="str">
         <v>Expenses</v>
       </c>
       <c r="D256" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="257">
       <c r="B257" t="str">
-        <v>Uniforms</v>
+        <v>Waste Management</v>
       </c>
       <c r="C257" t="str">
         <v>Expenses</v>
       </c>
       <c r="D257" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="258">
       <c r="B258" t="str">
-        <v>Waste Management</v>
+        <v>Waste Management:Waste 11 Mackay</v>
       </c>
       <c r="C258" t="str">
         <v>Expenses</v>
       </c>
       <c r="D258" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="259">
       <c r="B259" t="str">
-        <v>Waste Management:Waste 11 Mackay</v>
+        <v>Waste Management:Waste 18 Mackay</v>
       </c>
       <c r="C259" t="str">
         <v>Expenses</v>
       </c>
       <c r="D259" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="260">
       <c r="B260" t="str">
-        <v>Waste Management:Waste 18 Mackay</v>
+        <v>Waste Management:Waste 9 Mackay</v>
       </c>
       <c r="C260" t="str">
         <v>Expenses</v>
       </c>
       <c r="D260" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="261">
       <c r="B261" t="str">
-        <v>Waste Management:Waste 9 Mackay</v>
+        <v>Water &amp; Sanitation</v>
       </c>
       <c r="C261" t="str">
         <v>Expenses</v>
       </c>
       <c r="D261" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="262">
       <c r="B262" t="str">
-        <v>Water &amp; Sanitation</v>
+        <v>Water &amp; Sanitation:Water &amp; San 11 Mackay</v>
       </c>
       <c r="C262" t="str">
         <v>Expenses</v>
       </c>
       <c r="D262" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="263">
       <c r="B263" t="str">
-        <v>Water &amp; Sanitation:Water &amp; San 11 Mackay</v>
+        <v>Water &amp; Sanitation:Water &amp; San 18 Mackay</v>
       </c>
       <c r="C263" t="str">
         <v>Expenses</v>
       </c>
       <c r="D263" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="str">
-        <v>Water &amp; Sanitation:Water &amp; San 18 Mackay</v>
+        <v>Water &amp; Sanitation:Water &amp; San 9 Makcay</v>
       </c>
       <c r="C264" t="str">
         <v>Expenses</v>
       </c>
       <c r="D264" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="265">
       <c r="B265" t="str">
-        <v>Water &amp; Sanitation:Water &amp; San 9 Makcay</v>
+        <v>Work Permit</v>
       </c>
       <c r="C265" t="str">
         <v>Expenses</v>
       </c>
       <c r="D265" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" t="str">
-        <v>Work Permit</v>
+        <v>Wormans Compensation</v>
       </c>
       <c r="C266" t="str">
         <v>Expenses</v>
       </c>
       <c r="D266" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Office/General Administrative Expenses</v>
       </c>
     </row>
     <row r="267">
+      <c r="A267">
+        <v>7020</v>
+      </c>
       <c r="B267" t="str">
-        <v>Wormans Compensation</v>
+        <v>Interest Income</v>
       </c>
       <c r="C267" t="str">
-        <v>Expenses</v>
+        <v>Other income</v>
       </c>
       <c r="D267" t="str">
-        <v>Office/General Administrative Expensesanjay</v>
+        <v>Other Miscellaneous Income</v>
+      </c>
+      <c r="E267" t="str">
+        <v>Interest earned on bank accounts and loans</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268">
-        <v>7020</v>
-      </c>
       <c r="B268" t="str">
-        <v>Interest Income</v>
+        <v>Reconciliation Discrepancies</v>
       </c>
       <c r="C268" t="str">
-        <v>Other income</v>
+        <v>Other expense</v>
       </c>
       <c r="D268" t="str">
-        <v>Other Miscellaneous Incomeanjay</v>
-      </c>
-      <c r="E268" t="str">
-        <v>Interest earned on bank accounts and loans</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="B269" t="str">
-        <v>Reconciliation Discrepancies</v>
-      </c>
-      <c r="C269" t="str">
-        <v>Other expense</v>
-      </c>
-      <c r="D269" t="str">
-        <v>Other Expenseanjay</v>
+        <v>Other Expense</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E269"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E268"/>
   </ignoredErrors>
 </worksheet>
 </file>